--- a/cmake-build-debug/Graphed Data/heapSortFile.xlsx
+++ b/cmake-build-debug/Graphed Data/heapSortFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amccm\CLionProjects\Project_4\cmake-build-debug\Graphed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C1B5D58-E77A-482F-85F4-2CD9F3D93ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD4328F-5381-4B67-AA5B-AF16C3E8FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21540" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="heapSortFile" sheetId="1" r:id="rId1"/>
@@ -754,7 +754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4855-41A5-ABF1-48771A192886}"/>
+              <c16:uniqueId val="{00000000-14AF-4298-A375-5249B6AE3029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -865,7 +865,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4855-41A5-ABF1-48771A192886}"/>
+              <c16:uniqueId val="{00000001-14AF-4298-A375-5249B6AE3029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -878,11 +878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="630096703"/>
-        <c:axId val="630092959"/>
+        <c:axId val="1168972832"/>
+        <c:axId val="1168973248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630096703"/>
+        <c:axId val="1168972832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,13 +909,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Vector</a:t>
+                  <a:t>Vector Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -985,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630092959"/>
+        <c:crossAx val="1168973248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630092959"/>
+        <c:axId val="1168973248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,8 +1029,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Reads and Writes</a:t>
+                  <a:t>Reads and</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Writes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1099,7 +1099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630096703"/>
+        <c:crossAx val="1168972832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1739,23 +1739,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1265756D-D99D-43D8-A985-0375D0F08C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7803171B-FBA5-41E7-8D54-9F991D6C0E83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
